--- a/utils/localisation_script/excel_to_json/bn/r.xlsx
+++ b/utils/localisation_script/excel_to_json/bn/r.xlsx
@@ -5,24 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umair.manzoor/Downloads/Delta2 Bengali files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/bn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4908FBF-4684-C740-9AAB-DAFCA4424865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA35D83D-574D-6844-8EC6-3A44D2CBA89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="580" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="580" windowWidth="15600" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delta" sheetId="7" r:id="rId1"/>
     <sheet name="Delta 2" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet10" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="109">
   <si>
     <t>Heading</t>
   </si>
@@ -82,9 +81,6 @@
   </si>
   <si>
     <t>Page Name</t>
-  </si>
-  <si>
-    <t>English Copy</t>
   </si>
   <si>
     <t>All functional Pages</t>
@@ -260,9 +256,6 @@
     <t>To win bhasha samarthak - bronze</t>
   </si>
   <si>
-    <t>Target Language</t>
-  </si>
-  <si>
     <t>তথ্য সূত্র</t>
   </si>
   <si>
@@ -392,7 +385,10 @@
     <t xml:space="preserve">ভাসা সমর্থক জিততে - ব্রোঞ্জ </t>
   </si>
   <si>
-    <t xml:space="preserve"> Bengali</t>
+    <t>Bengali</t>
+  </si>
+  <si>
+    <t>English copy</t>
   </si>
 </sst>
 </file>
@@ -864,8 +860,8 @@
   </sheetPr>
   <dimension ref="A2:G1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
@@ -887,11 +883,11 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -899,52 +895,52 @@
     </row>
     <row r="4" spans="1:7" ht="14">
       <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14">
       <c r="D5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14">
       <c r="D6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="G6" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="126">
       <c r="D7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="G7" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -953,10 +949,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="E9" s="13"/>
       <c r="G9" s="34"/>
@@ -982,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="15">
         <v>1</v>
@@ -994,13 +990,13 @@
     <row r="13" spans="1:7" ht="98">
       <c r="C13" s="4"/>
       <c r="D13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14">
@@ -1012,7 +1008,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14">
@@ -1020,7 +1016,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="16">
         <v>2</v>
@@ -1032,13 +1028,13 @@
     <row r="16" spans="1:7" ht="98">
       <c r="C16" s="4"/>
       <c r="D16" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14">
@@ -1050,7 +1046,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14">
@@ -1058,7 +1054,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="15">
         <v>3</v>
@@ -1070,13 +1066,13 @@
     <row r="19" spans="1:7" ht="84">
       <c r="C19" s="4"/>
       <c r="D19" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14">
@@ -1088,7 +1084,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14">
@@ -1096,7 +1092,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="15">
         <v>4</v>
@@ -1108,13 +1104,13 @@
     <row r="22" spans="1:7" ht="112">
       <c r="C22" s="4"/>
       <c r="D22" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14">
@@ -1126,7 +1122,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1134,19 +1130,19 @@
     </row>
     <row r="25" spans="1:7" ht="14">
       <c r="A25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="G25" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1154,21 +1150,21 @@
     </row>
     <row r="27" spans="1:7" ht="42">
       <c r="D27" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28">
       <c r="E28" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1179,10 +1175,10 @@
         <v>2</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1190,38 +1186,38 @@
     </row>
     <row r="32" spans="1:7" ht="14">
       <c r="C32" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="G32" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="3:7" ht="14">
       <c r="D33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>46</v>
-      </c>
       <c r="G33" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="3:7" ht="28">
       <c r="D34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>48</v>
-      </c>
       <c r="G34" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="3:7">
@@ -1229,24 +1225,24 @@
     </row>
     <row r="36" spans="3:7" ht="14">
       <c r="D36" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="3:7" ht="14">
       <c r="D37" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="3:7">
@@ -1255,24 +1251,24 @@
     </row>
     <row r="39" spans="3:7" ht="14">
       <c r="D39" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="3:7" ht="14">
       <c r="D40" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="3:7">
@@ -1281,24 +1277,24 @@
     </row>
     <row r="42" spans="3:7" ht="14">
       <c r="D42" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="3:7" ht="28">
       <c r="D43" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="G43" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="3:7">
@@ -1306,16 +1302,16 @@
     </row>
     <row r="45" spans="3:7" ht="14">
       <c r="C45" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="3:7">
@@ -4208,9 +4204,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A2:G1001"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -4223,545 +4219,542 @@
     <col min="7" max="7" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="14">
+      <c r="A4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="27" t="s">
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14">
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14">
+      <c r="D6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="14">
-      <c r="A3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="34" t="s">
+    <row r="7" spans="1:7" ht="112">
+      <c r="D7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14">
-      <c r="D4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14">
-      <c r="D5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="112">
-      <c r="D6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="13" t="s">
+    <row r="8" spans="1:7">
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="21" t="s">
+      <c r="C9" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="98">
+      <c r="C10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="98">
-      <c r="C9" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="C10" s="6"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="56">
+      <c r="G10" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="C11" s="6"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="56">
+      <c r="C12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14">
+      <c r="C13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14">
-      <c r="C12" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="84">
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
       <c r="E13" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>24</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="84">
       <c r="C14" s="6"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" ht="14">
-      <c r="C15" s="25" t="s">
+      <c r="E14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" ht="14">
+      <c r="C16" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="26">
+      <c r="D16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="26">
         <v>1</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G16" s="37">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="98">
-      <c r="C16" s="27"/>
-      <c r="D16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14">
+    <row r="17" spans="1:7" ht="98">
       <c r="C17" s="27"/>
       <c r="D17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14">
+      <c r="C18" s="27"/>
+      <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E18" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G18" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14">
+      <c r="C19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="16">
+        <v>2</v>
+      </c>
+      <c r="G19" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="98">
+      <c r="C20" s="27"/>
+      <c r="D20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14">
+      <c r="C21" s="27"/>
+      <c r="D21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14">
-      <c r="C18" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="16">
+    <row r="22" spans="1:7" ht="14">
+      <c r="C22" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="26">
+        <v>3</v>
+      </c>
+      <c r="G22" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="84">
+      <c r="C23" s="27"/>
+      <c r="D23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14">
+      <c r="C24" s="27"/>
+      <c r="D24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14">
+      <c r="C25" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="26">
+        <v>4</v>
+      </c>
+      <c r="G25" s="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="112">
+      <c r="C26" s="27"/>
+      <c r="D26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14">
+      <c r="C27" s="27"/>
+      <c r="D27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="E28" s="11"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" ht="14">
+      <c r="A29" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="E30" s="11"/>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:7" ht="42">
+      <c r="D31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="28">
+      <c r="E32" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="E33" s="31"/>
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="1:7" ht="14">
+      <c r="D34" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="98">
-      <c r="C19" s="27"/>
-      <c r="D19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14">
-      <c r="C20" s="27"/>
-      <c r="D20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14">
-      <c r="C21" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="26">
-        <v>3</v>
-      </c>
-      <c r="G21" s="39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="84">
-      <c r="C22" s="27"/>
-      <c r="D22" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14">
-      <c r="C23" s="27"/>
-      <c r="D23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14">
-      <c r="C24" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="26">
-        <v>4</v>
-      </c>
-      <c r="G24" s="39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="112">
-      <c r="C25" s="27"/>
-      <c r="D25" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14">
-      <c r="C26" s="27"/>
-      <c r="D26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="E27" s="11"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" ht="14">
-      <c r="A28" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="E34" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="E35" s="31"/>
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="1:7" ht="14">
+      <c r="C36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="E29" s="11"/>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" ht="42">
-      <c r="D30" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="34" t="s">
+      <c r="E36" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="27" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28">
-      <c r="E31" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="E32" s="31"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7" ht="14">
-      <c r="D33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" s="27" t="s">
+    <row r="37" spans="1:7" ht="14">
+      <c r="D37" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="E34" s="31"/>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="1:7" ht="14">
-      <c r="C35" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" s="27" t="s">
+    <row r="38" spans="1:7" ht="28">
+      <c r="D38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="27" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="14">
-      <c r="D36" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="28">
-      <c r="D37" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="E38" s="31"/>
     </row>
     <row r="39" spans="1:7">
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="1:7" ht="14">
-      <c r="C40" s="9" t="s">
+    <row r="40" spans="1:7">
+      <c r="E40" s="31"/>
+    </row>
+    <row r="41" spans="1:7" ht="14">
+      <c r="C41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:7" ht="15">
-      <c r="A42" s="20" t="s">
+      <c r="G41" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" ht="15">
+      <c r="A43" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="32" t="s">
+      <c r="G43" s="34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30">
+      <c r="C44" s="1"/>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="E45" s="11"/>
+      <c r="G45" s="36"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="D46" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="E47" s="33"/>
+      <c r="G47" s="36"/>
+    </row>
+    <row r="48" spans="1:7" ht="42">
+      <c r="C48" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7">
+      <c r="C49" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="30">
-      <c r="C43" s="1"/>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="E44" s="11"/>
-      <c r="G44" s="36"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="D45" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" s="34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="E46" s="33"/>
-      <c r="G46" s="36"/>
-    </row>
-    <row r="47" spans="1:7" ht="42">
-      <c r="C47" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="34" t="s">
+      <c r="E49" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="41" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="C48" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G48" s="41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5">
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="5:5">
+    <row r="50" spans="3:7">
       <c r="E50" s="11"/>
     </row>
-    <row r="51" spans="5:5">
+    <row r="51" spans="3:7">
       <c r="E51" s="11"/>
     </row>
-    <row r="52" spans="5:5">
+    <row r="52" spans="3:7">
       <c r="E52" s="11"/>
     </row>
-    <row r="53" spans="5:5">
+    <row r="53" spans="3:7">
       <c r="E53" s="11"/>
     </row>
-    <row r="54" spans="5:5">
+    <row r="54" spans="3:7">
       <c r="E54" s="11"/>
     </row>
-    <row r="55" spans="5:5">
+    <row r="55" spans="3:7">
       <c r="E55" s="11"/>
     </row>
-    <row r="56" spans="5:5">
+    <row r="56" spans="3:7">
       <c r="E56" s="11"/>
     </row>
-    <row r="57" spans="5:5">
+    <row r="57" spans="3:7">
       <c r="E57" s="11"/>
     </row>
-    <row r="58" spans="5:5">
+    <row r="58" spans="3:7">
       <c r="E58" s="11"/>
     </row>
-    <row r="59" spans="5:5">
+    <row r="59" spans="3:7">
       <c r="E59" s="11"/>
     </row>
-    <row r="60" spans="5:5">
+    <row r="60" spans="3:7">
       <c r="E60" s="11"/>
     </row>
-    <row r="61" spans="5:5">
+    <row r="61" spans="3:7">
       <c r="E61" s="11"/>
     </row>
-    <row r="62" spans="5:5">
+    <row r="62" spans="3:7">
       <c r="E62" s="11"/>
     </row>
-    <row r="63" spans="5:5">
+    <row r="63" spans="3:7">
       <c r="E63" s="11"/>
     </row>
-    <row r="64" spans="5:5">
+    <row r="64" spans="3:7">
       <c r="E64" s="11"/>
     </row>
     <row r="65" spans="5:5">
@@ -7571,24 +7564,12 @@
     </row>
     <row r="1000" spans="5:5">
       <c r="E1000" s="11"/>
+    </row>
+    <row r="1001" spans="5:5">
+      <c r="E1001" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>